--- a/Extra Resources/Update Plans/Sredictio Update Plans.xlsx
+++ b/Extra Resources/Update Plans/Sredictio Update Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Update Plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E324D4-ED92-4140-9291-8B823270A3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576C7FC4-39CE-7646-9D4E-37280B7361A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0.2.0" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -346,18 +343,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -455,196 +455,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1060,166 +870,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943617D6-B2A8-FD44-B39F-D04B6B72B26A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="100.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="100.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="4" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="30.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1227,40 +1037,40 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1272,136 +1082,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="100.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="100.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="4" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="30.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
